--- a/data/pca/factorExposure/factorExposure_2014-10-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.02364586581749705</v>
+        <v>-0.01873444613905255</v>
       </c>
       <c r="C2">
-        <v>-0.0961063440614779</v>
+        <v>-0.07882362441712784</v>
       </c>
       <c r="D2">
-        <v>-0.07755596658894703</v>
+        <v>-0.01954079383303972</v>
       </c>
       <c r="E2">
-        <v>0.13982695313772</v>
+        <v>-0.1075666261289126</v>
       </c>
       <c r="F2">
-        <v>0.2075893462093618</v>
+        <v>-0.1204437091033004</v>
       </c>
       <c r="G2">
-        <v>-0.1144417826581115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.06570853740335399</v>
+      </c>
+      <c r="H2">
+        <v>0.03372940160946731</v>
+      </c>
+      <c r="I2">
+        <v>-0.03184652208887481</v>
+      </c>
+      <c r="J2">
+        <v>-0.1832761430657323</v>
+      </c>
+      <c r="K2">
+        <v>0.1120554496660816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.05189917073121654</v>
+        <v>-0.02413504895201023</v>
       </c>
       <c r="C4">
-        <v>-0.1574591705397616</v>
+        <v>-0.154101152348521</v>
       </c>
       <c r="D4">
-        <v>0.003102946236075381</v>
+        <v>-0.05271145281816456</v>
       </c>
       <c r="E4">
-        <v>0.08786011387450535</v>
+        <v>0.006807165050695761</v>
       </c>
       <c r="F4">
-        <v>-0.03894481802569231</v>
+        <v>-0.09305722277071007</v>
       </c>
       <c r="G4">
-        <v>-0.02844001080540515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.02829791632102124</v>
+      </c>
+      <c r="H4">
+        <v>0.1003212449223323</v>
+      </c>
+      <c r="I4">
+        <v>0.008175463800155831</v>
+      </c>
+      <c r="J4">
+        <v>-0.1515841699352913</v>
+      </c>
+      <c r="K4">
+        <v>-0.06352486129493944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.03728894428044369</v>
+        <v>-0.04117578543649723</v>
       </c>
       <c r="C6">
-        <v>-0.06726391233437706</v>
+        <v>-0.0694804570482879</v>
       </c>
       <c r="D6">
-        <v>-0.01639063863953049</v>
+        <v>-0.02193639995974803</v>
       </c>
       <c r="E6">
-        <v>0.1079372033897845</v>
+        <v>-0.06929248605469857</v>
       </c>
       <c r="F6">
-        <v>0.01004450189804319</v>
+        <v>-0.07334140932449726</v>
       </c>
       <c r="G6">
-        <v>0.01531753970150616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.05299800607195522</v>
+      </c>
+      <c r="H6">
+        <v>0.0387583783092937</v>
+      </c>
+      <c r="I6">
+        <v>-0.0615342447703955</v>
+      </c>
+      <c r="J6">
+        <v>-0.05042817868673068</v>
+      </c>
+      <c r="K6">
+        <v>0.04321562065727687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.005817233600531797</v>
+        <v>-0.01431314100411466</v>
       </c>
       <c r="C7">
-        <v>-0.05129085510714625</v>
+        <v>-0.06589334971576646</v>
       </c>
       <c r="D7">
-        <v>-0.004791579536874624</v>
+        <v>-0.01456040044688906</v>
       </c>
       <c r="E7">
-        <v>0.078803778186782</v>
+        <v>0.008097807727901916</v>
       </c>
       <c r="F7">
-        <v>-0.008987668675386693</v>
+        <v>-0.03996271602469588</v>
       </c>
       <c r="G7">
-        <v>-0.03685370270040386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.05482174548139016</v>
+      </c>
+      <c r="H7">
+        <v>0.09326322832500254</v>
+      </c>
+      <c r="I7">
+        <v>-0.01866721090900619</v>
+      </c>
+      <c r="J7">
+        <v>-0.04917385128043605</v>
+      </c>
+      <c r="K7">
+        <v>0.006510200740654251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01013650110585715</v>
+        <v>0.000337002907956213</v>
       </c>
       <c r="C8">
-        <v>-0.07204294505863884</v>
+        <v>-0.06875408478787715</v>
       </c>
       <c r="D8">
-        <v>0.006596370725447062</v>
+        <v>-0.03815760009017816</v>
       </c>
       <c r="E8">
-        <v>0.09910514290039688</v>
+        <v>-0.02248392932823493</v>
       </c>
       <c r="F8">
-        <v>0.03137416429016478</v>
+        <v>-0.05969966374651272</v>
       </c>
       <c r="G8">
-        <v>-0.07946906945768571</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.03399099625330636</v>
+      </c>
+      <c r="H8">
+        <v>0.04738589489268931</v>
+      </c>
+      <c r="I8">
+        <v>0.003312539296049045</v>
+      </c>
+      <c r="J8">
+        <v>-0.01170779332144004</v>
+      </c>
+      <c r="K8">
+        <v>-0.008546545478371196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.0324225382788367</v>
+        <v>-0.01606887819634996</v>
       </c>
       <c r="C9">
-        <v>-0.1315590964502471</v>
+        <v>-0.1180417903960283</v>
       </c>
       <c r="D9">
-        <v>0.007633641342289132</v>
+        <v>-0.03527961491240826</v>
       </c>
       <c r="E9">
-        <v>0.06993034904757446</v>
+        <v>-0.008427109512262427</v>
       </c>
       <c r="F9">
-        <v>-0.01906701931747895</v>
+        <v>-0.042683035715812</v>
       </c>
       <c r="G9">
-        <v>0.0130695648229252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.008126130394937934</v>
+      </c>
+      <c r="H9">
+        <v>0.09174654452178703</v>
+      </c>
+      <c r="I9">
+        <v>-0.02541336020083831</v>
+      </c>
+      <c r="J9">
+        <v>-0.06801585747206795</v>
+      </c>
+      <c r="K9">
+        <v>-0.05495732491597424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2661810508414018</v>
+        <v>-0.2496992492170401</v>
       </c>
       <c r="C10">
-        <v>0.139855965025848</v>
+        <v>0.1024702289132975</v>
       </c>
       <c r="D10">
-        <v>-0.009740122046493707</v>
+        <v>0.003343176283967201</v>
       </c>
       <c r="E10">
-        <v>-0.02280012718809579</v>
+        <v>-0.01124127382739296</v>
       </c>
       <c r="F10">
-        <v>-0.03442532310082948</v>
+        <v>0.005300593247676767</v>
       </c>
       <c r="G10">
-        <v>0.02309899288287193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01888515173314869</v>
+      </c>
+      <c r="H10">
+        <v>0.06462127904196982</v>
+      </c>
+      <c r="I10">
+        <v>0.1606921652604444</v>
+      </c>
+      <c r="J10">
+        <v>0.08449392918707477</v>
+      </c>
+      <c r="K10">
+        <v>-0.03581561332704716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.01897160771539085</v>
+        <v>-0.01744525928082127</v>
       </c>
       <c r="C11">
-        <v>-0.06494089252326349</v>
+        <v>-0.08133595655121843</v>
       </c>
       <c r="D11">
-        <v>0.01074051373796346</v>
+        <v>-0.0282695755146376</v>
       </c>
       <c r="E11">
-        <v>0.04081589552165447</v>
+        <v>0.007960237590791055</v>
       </c>
       <c r="F11">
-        <v>-0.05193901512511118</v>
+        <v>-0.007886874878944423</v>
       </c>
       <c r="G11">
-        <v>0.0326193989242607</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02537640050351387</v>
+      </c>
+      <c r="H11">
+        <v>0.03277333191205355</v>
+      </c>
+      <c r="I11">
+        <v>-0.007828886328617252</v>
+      </c>
+      <c r="J11">
+        <v>0.03198213365890574</v>
+      </c>
+      <c r="K11">
+        <v>-0.04464632454667865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.01616277638616343</v>
+        <v>-0.01737113577304381</v>
       </c>
       <c r="C12">
-        <v>-0.06273791034223083</v>
+        <v>-0.06382865714677145</v>
       </c>
       <c r="D12">
-        <v>0.01489298497249126</v>
+        <v>-0.01679869632867006</v>
       </c>
       <c r="E12">
-        <v>0.0353681924545121</v>
+        <v>-0.01694688520783625</v>
       </c>
       <c r="F12">
-        <v>-0.02194057463227303</v>
+        <v>0.003518367370344922</v>
       </c>
       <c r="G12">
-        <v>0.0619185416052238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0336559464885131</v>
+      </c>
+      <c r="H12">
+        <v>0.03339348011418747</v>
+      </c>
+      <c r="I12">
+        <v>-0.01087329243575463</v>
+      </c>
+      <c r="J12">
+        <v>0.01291334182918158</v>
+      </c>
+      <c r="K12">
+        <v>-0.04726620553157748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.03028866934058483</v>
+        <v>-0.008245881816716172</v>
       </c>
       <c r="C13">
-        <v>-0.1010035016880009</v>
+        <v>-0.1146169583938683</v>
       </c>
       <c r="D13">
-        <v>0.007504692776912793</v>
+        <v>-0.02991718942316361</v>
       </c>
       <c r="E13">
-        <v>0.1580051599588466</v>
+        <v>-0.1508534746604054</v>
       </c>
       <c r="F13">
-        <v>-0.0198138514282529</v>
+        <v>-0.08975559829718853</v>
       </c>
       <c r="G13">
-        <v>0.101569990460382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.09481933053592465</v>
+      </c>
+      <c r="H13">
+        <v>0.09699290834172475</v>
+      </c>
+      <c r="I13">
+        <v>0.1876763352577238</v>
+      </c>
+      <c r="J13">
+        <v>0.1612925589166966</v>
+      </c>
+      <c r="K13">
+        <v>0.06024980902310542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.01988092663983987</v>
+        <v>-0.01906303742485039</v>
       </c>
       <c r="C14">
-        <v>-0.0560557226772021</v>
+        <v>-0.07414857399034931</v>
       </c>
       <c r="D14">
-        <v>-0.00271264016426793</v>
+        <v>-0.03680402397066371</v>
       </c>
       <c r="E14">
-        <v>0.07294136347522784</v>
+        <v>-0.05943796490864125</v>
       </c>
       <c r="F14">
-        <v>0.007244737238360975</v>
+        <v>-0.03781358378122676</v>
       </c>
       <c r="G14">
-        <v>0.04413077147431818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.08593808299029536</v>
+      </c>
+      <c r="H14">
+        <v>0.2072497433053381</v>
+      </c>
+      <c r="I14">
+        <v>-0.03640496495125656</v>
+      </c>
+      <c r="J14">
+        <v>0.1103810240388591</v>
+      </c>
+      <c r="K14">
+        <v>0.1401634304927829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.009756708540107196</v>
+        <v>-0.002400058042118722</v>
       </c>
       <c r="C15">
-        <v>-0.07991505373352649</v>
+        <v>-0.07506322544563748</v>
       </c>
       <c r="D15">
-        <v>-0.01350580481707619</v>
+        <v>-0.0251495507718964</v>
       </c>
       <c r="E15">
-        <v>0.112689909502605</v>
+        <v>-0.01364097466793138</v>
       </c>
       <c r="F15">
-        <v>-0.008034739813973629</v>
+        <v>-0.057841976055286</v>
       </c>
       <c r="G15">
-        <v>-0.003971237816313746</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.04199571572700654</v>
+      </c>
+      <c r="H15">
+        <v>0.06966043329000825</v>
+      </c>
+      <c r="I15">
+        <v>-0.02569484954041057</v>
+      </c>
+      <c r="J15">
+        <v>0.04779749354105298</v>
+      </c>
+      <c r="K15">
+        <v>0.01523415191782629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.02099117938166896</v>
+        <v>-0.01687017192642336</v>
       </c>
       <c r="C16">
-        <v>-0.06185463610825383</v>
+        <v>-0.068081035060127</v>
       </c>
       <c r="D16">
-        <v>0.00181120811322871</v>
+        <v>-0.01966699682236432</v>
       </c>
       <c r="E16">
-        <v>0.03694968708374801</v>
+        <v>0.001537504813632022</v>
       </c>
       <c r="F16">
-        <v>-0.0276914928016031</v>
+        <v>-0.007519313212267864</v>
       </c>
       <c r="G16">
-        <v>0.03503386624079308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02253660169005814</v>
+      </c>
+      <c r="H16">
+        <v>0.02613565144730842</v>
+      </c>
+      <c r="I16">
+        <v>-0.01257792477632035</v>
+      </c>
+      <c r="J16">
+        <v>0.0141956123568941</v>
+      </c>
+      <c r="K16">
+        <v>-0.03074953320142656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.02206853885696522</v>
+        <v>-0.0135176745427104</v>
       </c>
       <c r="C20">
-        <v>-0.07626743966047611</v>
+        <v>-0.086161895418655</v>
       </c>
       <c r="D20">
-        <v>-0.0139732194060629</v>
+        <v>-0.01389959045998851</v>
       </c>
       <c r="E20">
-        <v>0.07596209213740467</v>
+        <v>0.01705565241634704</v>
       </c>
       <c r="F20">
-        <v>-0.06043837557327121</v>
+        <v>-0.03001212746892614</v>
       </c>
       <c r="G20">
-        <v>0.04114147554138288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.06106643121746522</v>
+      </c>
+      <c r="H20">
+        <v>0.07005838460912123</v>
+      </c>
+      <c r="I20">
+        <v>-0.02353929426436281</v>
+      </c>
+      <c r="J20">
+        <v>-0.01254269486721881</v>
+      </c>
+      <c r="K20">
+        <v>-0.01471896745706763</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.02187929690904769</v>
+        <v>-0.01591906315643479</v>
       </c>
       <c r="C21">
-        <v>-0.1024902118769406</v>
+        <v>-0.08808409361435884</v>
       </c>
       <c r="D21">
-        <v>-0.04361740334057514</v>
+        <v>-0.01913020129447658</v>
       </c>
       <c r="E21">
-        <v>0.03472914564972998</v>
+        <v>-0.0893438031687683</v>
       </c>
       <c r="F21">
-        <v>0.03838242460494248</v>
+        <v>-0.003982940818794026</v>
       </c>
       <c r="G21">
-        <v>0.04018665886131502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.002815910361577879</v>
+      </c>
+      <c r="H21">
+        <v>0.1506695488433098</v>
+      </c>
+      <c r="I21">
+        <v>0.03173239783252542</v>
+      </c>
+      <c r="J21">
+        <v>0.04452575954060035</v>
+      </c>
+      <c r="K21">
+        <v>-0.01952716252951434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.05254173467249725</v>
+        <v>-0.007615925896582141</v>
       </c>
       <c r="C22">
-        <v>-0.1358509930247911</v>
+        <v>-0.1517157230294754</v>
       </c>
       <c r="D22">
-        <v>-0.188414519538738</v>
+        <v>-0.006671019054232309</v>
       </c>
       <c r="E22">
-        <v>0.1711121080564333</v>
+        <v>-0.05447372770018771</v>
       </c>
       <c r="F22">
-        <v>0.03144216114921652</v>
+        <v>-0.4532565222698791</v>
       </c>
       <c r="G22">
-        <v>-0.2956004227925561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.1830732737931147</v>
+      </c>
+      <c r="H22">
+        <v>-0.3437034030831992</v>
+      </c>
+      <c r="I22">
+        <v>0.06060010084805216</v>
+      </c>
+      <c r="J22">
+        <v>0.2085467664290504</v>
+      </c>
+      <c r="K22">
+        <v>-0.0350732034480616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.05240046851810528</v>
+        <v>-0.01187441514468389</v>
       </c>
       <c r="C23">
-        <v>-0.1366176993287728</v>
+        <v>-0.1554711342506499</v>
       </c>
       <c r="D23">
-        <v>-0.1873416566031096</v>
+        <v>-0.00471099824740735</v>
       </c>
       <c r="E23">
-        <v>0.168130100370297</v>
+        <v>-0.0551159562073593</v>
       </c>
       <c r="F23">
-        <v>0.03073507567750215</v>
+        <v>-0.4399469114133726</v>
       </c>
       <c r="G23">
-        <v>-0.2932086703312664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.177429799277727</v>
+      </c>
+      <c r="H23">
+        <v>-0.3210062692497483</v>
+      </c>
+      <c r="I23">
+        <v>0.05929480144529234</v>
+      </c>
+      <c r="J23">
+        <v>0.1974044424723694</v>
+      </c>
+      <c r="K23">
+        <v>-0.04504697190782796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.01547402687047333</v>
+        <v>-0.01842466721789446</v>
       </c>
       <c r="C24">
-        <v>-0.07784206349318729</v>
+        <v>-0.07679428328582978</v>
       </c>
       <c r="D24">
-        <v>0.02638426035678743</v>
+        <v>-0.03332189545825973</v>
       </c>
       <c r="E24">
-        <v>0.04381120625866309</v>
+        <v>0.004864332358050913</v>
       </c>
       <c r="F24">
-        <v>-0.03506951465934124</v>
+        <v>-0.005961585026920261</v>
       </c>
       <c r="G24">
-        <v>0.04518313760723323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02982255864113368</v>
+      </c>
+      <c r="H24">
+        <v>0.04195564175721999</v>
+      </c>
+      <c r="I24">
+        <v>-0.01131743181407244</v>
+      </c>
+      <c r="J24">
+        <v>0.01665130323227543</v>
+      </c>
+      <c r="K24">
+        <v>-0.04733114104775099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.01890954923304114</v>
+        <v>-0.02260940636293386</v>
       </c>
       <c r="C25">
-        <v>-0.06953062108523184</v>
+        <v>-0.07367715570977257</v>
       </c>
       <c r="D25">
-        <v>0.004348625913216793</v>
+        <v>-0.02197439623525557</v>
       </c>
       <c r="E25">
-        <v>0.036246644350684</v>
+        <v>0.004927927862866554</v>
       </c>
       <c r="F25">
-        <v>-0.04389304017673287</v>
+        <v>-0.009954760626016496</v>
       </c>
       <c r="G25">
-        <v>0.04473881620093151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03142591637334378</v>
+      </c>
+      <c r="H25">
+        <v>0.03475442352791253</v>
+      </c>
+      <c r="I25">
+        <v>0.001708559568340992</v>
+      </c>
+      <c r="J25">
+        <v>0.02916486790601676</v>
+      </c>
+      <c r="K25">
+        <v>-0.03542502583397534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.02018862140226348</v>
+        <v>-0.02559643291999782</v>
       </c>
       <c r="C26">
-        <v>-0.05716917033427957</v>
+        <v>-0.06525054248011812</v>
       </c>
       <c r="D26">
-        <v>0.02313851514055109</v>
+        <v>-0.05198888494112813</v>
       </c>
       <c r="E26">
-        <v>0.05198199829236362</v>
+        <v>-0.0007476476484891792</v>
       </c>
       <c r="F26">
-        <v>0.01012956339581146</v>
+        <v>-0.002730988159063859</v>
       </c>
       <c r="G26">
-        <v>0.02289046937609495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.004857982410011901</v>
+      </c>
+      <c r="H26">
+        <v>0.1038059941544383</v>
+      </c>
+      <c r="I26">
+        <v>-0.05011442767574822</v>
+      </c>
+      <c r="J26">
+        <v>-0.08050038488528131</v>
+      </c>
+      <c r="K26">
+        <v>-0.08151692261763289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3505084128237097</v>
+        <v>-0.3185550528795631</v>
       </c>
       <c r="C28">
-        <v>0.1514693946339612</v>
+        <v>0.1196309934674469</v>
       </c>
       <c r="D28">
-        <v>0.005968384829969883</v>
+        <v>0.02555546045396131</v>
       </c>
       <c r="E28">
-        <v>-0.08799867520562092</v>
+        <v>-0.005271009004996339</v>
       </c>
       <c r="F28">
-        <v>0.02647989731992221</v>
+        <v>-0.001516407865916362</v>
       </c>
       <c r="G28">
-        <v>0.02639782804179566</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1131093421377257</v>
+      </c>
+      <c r="H28">
+        <v>0.08577930542080285</v>
+      </c>
+      <c r="I28">
+        <v>0.1937076300198113</v>
+      </c>
+      <c r="J28">
+        <v>-0.05179925374357923</v>
+      </c>
+      <c r="K28">
+        <v>0.01638364816435372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.02149263465024939</v>
+        <v>-0.01431159869525877</v>
       </c>
       <c r="C29">
-        <v>-0.05356377243668733</v>
+        <v>-0.07636909181536873</v>
       </c>
       <c r="D29">
-        <v>-0.008298643858660382</v>
+        <v>-0.03970051057867356</v>
       </c>
       <c r="E29">
-        <v>0.1251694354664427</v>
+        <v>-0.08098086189922263</v>
       </c>
       <c r="F29">
-        <v>-0.01821487192839421</v>
+        <v>-0.07108530429184244</v>
       </c>
       <c r="G29">
-        <v>0.0650997283456045</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1413498184983608</v>
+      </c>
+      <c r="H29">
+        <v>0.2971796603240611</v>
+      </c>
+      <c r="I29">
+        <v>-0.04217450467792885</v>
+      </c>
+      <c r="J29">
+        <v>0.163620883667458</v>
+      </c>
+      <c r="K29">
+        <v>0.2584874815314557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.05401896014978606</v>
+        <v>-0.02970504417863154</v>
       </c>
       <c r="C30">
-        <v>-0.1727217286183273</v>
+        <v>-0.153876150564349</v>
       </c>
       <c r="D30">
-        <v>0.009750407587597284</v>
+        <v>-0.04873780285346224</v>
       </c>
       <c r="E30">
-        <v>0.08808347926247909</v>
+        <v>-0.007209234273549824</v>
       </c>
       <c r="F30">
-        <v>-0.008524793181641796</v>
+        <v>-0.06990918292591035</v>
       </c>
       <c r="G30">
-        <v>-0.05095044496158013</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01663001141347041</v>
+      </c>
+      <c r="H30">
+        <v>0.0117603487646069</v>
+      </c>
+      <c r="I30">
+        <v>-0.0468624563533446</v>
+      </c>
+      <c r="J30">
+        <v>-0.07960478141505871</v>
+      </c>
+      <c r="K30">
+        <v>-0.03066238272568548</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.00828180335017435</v>
+        <v>-0.01389850203839376</v>
       </c>
       <c r="C31">
-        <v>-0.09492052799820042</v>
+        <v>-0.09570034033579992</v>
       </c>
       <c r="D31">
-        <v>0.04334598911186733</v>
+        <v>-0.0360193091559318</v>
       </c>
       <c r="E31">
-        <v>-0.03118721416855873</v>
+        <v>0.004295659912378885</v>
       </c>
       <c r="F31">
-        <v>0.0151547295942604</v>
+        <v>0.02153239008401718</v>
       </c>
       <c r="G31">
-        <v>0.001959074486688175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04574688197698439</v>
+      </c>
+      <c r="H31">
+        <v>0.03956070263462797</v>
+      </c>
+      <c r="I31">
+        <v>-0.001432032761652803</v>
+      </c>
+      <c r="J31">
+        <v>0.04799145029571621</v>
+      </c>
+      <c r="K31">
+        <v>-0.03369109633964487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.04353107247718262</v>
+        <v>-0.02458013690393571</v>
       </c>
       <c r="C32">
-        <v>-0.08168276654829852</v>
+        <v>-0.06731488340491969</v>
       </c>
       <c r="D32">
-        <v>-0.05011242736339391</v>
+        <v>-0.01605144347053654</v>
       </c>
       <c r="E32">
-        <v>0.1595008870357086</v>
+        <v>-0.102855896529292</v>
       </c>
       <c r="F32">
-        <v>0.05556825672355276</v>
+        <v>-0.09132592205022366</v>
       </c>
       <c r="G32">
-        <v>0.001288092171557056</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02552659016686587</v>
+      </c>
+      <c r="H32">
+        <v>0.1509488149980256</v>
+      </c>
+      <c r="I32">
+        <v>0.2399652994991754</v>
+      </c>
+      <c r="J32">
+        <v>-0.03788267818998467</v>
+      </c>
+      <c r="K32">
+        <v>0.1699520267077169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.02257813250976204</v>
+        <v>-0.01860202284848169</v>
       </c>
       <c r="C33">
-        <v>-0.0875661589793279</v>
+        <v>-0.1086110800829447</v>
       </c>
       <c r="D33">
-        <v>0.01880050384324064</v>
+        <v>-0.03237185203421195</v>
       </c>
       <c r="E33">
-        <v>0.06291491434139505</v>
+        <v>-0.008623256360487105</v>
       </c>
       <c r="F33">
-        <v>-0.007694360287857225</v>
+        <v>-0.0373793479420908</v>
       </c>
       <c r="G33">
-        <v>0.02571277153781797</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03061449021053671</v>
+      </c>
+      <c r="H33">
+        <v>0.06289749811841726</v>
+      </c>
+      <c r="I33">
+        <v>0.012011944149031</v>
+      </c>
+      <c r="J33">
+        <v>0.002790178092440115</v>
+      </c>
+      <c r="K33">
+        <v>-0.02414623942997187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.00923390063656691</v>
+        <v>-0.01672373944234727</v>
       </c>
       <c r="C34">
-        <v>-0.05630774495442056</v>
+        <v>-0.05445327274046092</v>
       </c>
       <c r="D34">
-        <v>0.003443481324604629</v>
+        <v>-0.01655560903878831</v>
       </c>
       <c r="E34">
-        <v>0.03869925663450571</v>
+        <v>-0.003328517158008649</v>
       </c>
       <c r="F34">
-        <v>-0.01387825353909609</v>
+        <v>-0.002273326327265116</v>
       </c>
       <c r="G34">
-        <v>0.03510566984545126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02629299524738875</v>
+      </c>
+      <c r="H34">
+        <v>0.008989586902641315</v>
+      </c>
+      <c r="I34">
+        <v>-0.002785272582211863</v>
+      </c>
+      <c r="J34">
+        <v>0.01493167604537014</v>
+      </c>
+      <c r="K34">
+        <v>-0.04004181033966637</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.003732615182317872</v>
+        <v>-0.008093372607979477</v>
       </c>
       <c r="C35">
-        <v>-0.01098297961498901</v>
+        <v>-0.03633653758005006</v>
       </c>
       <c r="D35">
-        <v>-0.004962377207439187</v>
+        <v>-0.01462208672707438</v>
       </c>
       <c r="E35">
-        <v>0.02390478607196621</v>
+        <v>-0.02050136570598338</v>
       </c>
       <c r="F35">
-        <v>-0.009281201894312131</v>
+        <v>-0.02582106562633433</v>
       </c>
       <c r="G35">
-        <v>0.01386329140299625</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.0557108616497726</v>
+      </c>
+      <c r="H35">
+        <v>0.1492845417504384</v>
+      </c>
+      <c r="I35">
+        <v>0.003387136478625238</v>
+      </c>
+      <c r="J35">
+        <v>0.1392509418515273</v>
+      </c>
+      <c r="K35">
+        <v>0.1287508045868646</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.01495658662629237</v>
+        <v>-0.01547173215727347</v>
       </c>
       <c r="C36">
-        <v>-0.04896952418264681</v>
+        <v>-0.05093186235057563</v>
       </c>
       <c r="D36">
-        <v>0.03179418409170345</v>
+        <v>-0.03980231424823476</v>
       </c>
       <c r="E36">
-        <v>0.05017056116132219</v>
+        <v>-0.005528703511653466</v>
       </c>
       <c r="F36">
-        <v>0.003952882278071012</v>
+        <v>-0.01687996393780315</v>
       </c>
       <c r="G36">
-        <v>0.01386647831952817</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.011091018902105</v>
+      </c>
+      <c r="H36">
+        <v>0.06679196929592705</v>
+      </c>
+      <c r="I36">
+        <v>-0.01956150611129252</v>
+      </c>
+      <c r="J36">
+        <v>-0.03158854664736679</v>
+      </c>
+      <c r="K36">
+        <v>-0.06006882214210049</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02574471888772712</v>
+        <v>-0.01381808480887914</v>
       </c>
       <c r="C38">
-        <v>-0.04642077874339099</v>
+        <v>-0.06386782395545293</v>
       </c>
       <c r="D38">
-        <v>0.01982588959932217</v>
+        <v>-0.03173711085181273</v>
       </c>
       <c r="E38">
-        <v>0.04558910955196238</v>
+        <v>0.02168915172743311</v>
       </c>
       <c r="F38">
-        <v>-0.01659566168793489</v>
+        <v>-0.03628739186025769</v>
       </c>
       <c r="G38">
-        <v>-0.003086498120894773</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.008394398160273393</v>
+      </c>
+      <c r="H38">
+        <v>0.07577628791163411</v>
+      </c>
+      <c r="I38">
+        <v>0.05940112877817544</v>
+      </c>
+      <c r="J38">
+        <v>0.02568314071886803</v>
+      </c>
+      <c r="K38">
+        <v>-0.06585795296838649</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.01601156764606365</v>
+        <v>-0.01782956586231034</v>
       </c>
       <c r="C39">
-        <v>-0.1360646321749646</v>
+        <v>-0.1340521057727422</v>
       </c>
       <c r="D39">
-        <v>0.004477808739481544</v>
+        <v>-0.04601319726372302</v>
       </c>
       <c r="E39">
-        <v>0.08223136483934447</v>
+        <v>-0.009504740965911347</v>
       </c>
       <c r="F39">
-        <v>-0.03937090525284104</v>
+        <v>-0.02007423994955331</v>
       </c>
       <c r="G39">
-        <v>0.04173266487379203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05053534129364754</v>
+      </c>
+      <c r="H39">
+        <v>0.03531188037012641</v>
+      </c>
+      <c r="I39">
+        <v>-0.061332363888327</v>
+      </c>
+      <c r="J39">
+        <v>-0.006131924973115968</v>
+      </c>
+      <c r="K39">
+        <v>-0.05902372504580417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.0003946347326427586</v>
+        <v>-0.01573125657978321</v>
       </c>
       <c r="C40">
-        <v>-0.03493455667617797</v>
+        <v>-0.06223932278620309</v>
       </c>
       <c r="D40">
-        <v>-0.0166857590924642</v>
+        <v>-0.02749460275128987</v>
       </c>
       <c r="E40">
-        <v>0.1518415008119471</v>
+        <v>-0.06654440149810283</v>
       </c>
       <c r="F40">
-        <v>-0.01065287384553689</v>
+        <v>-0.09587364705998677</v>
       </c>
       <c r="G40">
-        <v>-0.007893947837527506</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1233417621089173</v>
+      </c>
+      <c r="H40">
+        <v>0.003215683447458367</v>
+      </c>
+      <c r="I40">
+        <v>0.07054095806209153</v>
+      </c>
+      <c r="J40">
+        <v>0.293680294968002</v>
+      </c>
+      <c r="K40">
+        <v>-0.05513326076745721</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.008967378510907042</v>
+        <v>-0.02146468970599649</v>
       </c>
       <c r="C41">
-        <v>-0.01960197177004912</v>
+        <v>-0.04847013335423232</v>
       </c>
       <c r="D41">
-        <v>-0.002368623080018211</v>
+        <v>-0.01035504404287228</v>
       </c>
       <c r="E41">
-        <v>-0.012006757160397</v>
+        <v>0.006386295324568128</v>
       </c>
       <c r="F41">
-        <v>0.004730743378373367</v>
+        <v>0.009918920212303638</v>
       </c>
       <c r="G41">
-        <v>-0.005204856750946014</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01143701258441792</v>
+      </c>
+      <c r="H41">
+        <v>0.0388650717891766</v>
+      </c>
+      <c r="I41">
+        <v>0.03324765568697008</v>
+      </c>
+      <c r="J41">
+        <v>0.05870732632616001</v>
+      </c>
+      <c r="K41">
+        <v>0.0002006658216585273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.005990992335770265</v>
+        <v>-0.01701042178103077</v>
       </c>
       <c r="C43">
-        <v>-0.02175474093640504</v>
+        <v>-0.04581746499879595</v>
       </c>
       <c r="D43">
-        <v>0.008896053526472538</v>
+        <v>-0.02581612103417261</v>
       </c>
       <c r="E43">
-        <v>0.01705498688646678</v>
+        <v>0.01411370838166006</v>
       </c>
       <c r="F43">
-        <v>-0.02151397059099492</v>
+        <v>-0.00683460026320495</v>
       </c>
       <c r="G43">
-        <v>-0.0002150417238671104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01562999782338406</v>
+      </c>
+      <c r="H43">
+        <v>0.05257405660066769</v>
+      </c>
+      <c r="I43">
+        <v>0.003715337903590855</v>
+      </c>
+      <c r="J43">
+        <v>0.04871107463357561</v>
+      </c>
+      <c r="K43">
+        <v>-0.001207928679063797</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.03296383455169406</v>
+        <v>-0.01234040945657128</v>
       </c>
       <c r="C44">
-        <v>-0.07944562425756166</v>
+        <v>-0.08992417377131287</v>
       </c>
       <c r="D44">
-        <v>-0.02440998106933383</v>
+        <v>-0.04518462080206427</v>
       </c>
       <c r="E44">
-        <v>0.1102429581628851</v>
+        <v>-0.01218567042954335</v>
       </c>
       <c r="F44">
-        <v>-0.01844085863662766</v>
+        <v>-0.09260517167144189</v>
       </c>
       <c r="G44">
-        <v>-0.03427099763177955</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.02748237783113358</v>
+      </c>
+      <c r="H44">
+        <v>0.03466299935316815</v>
+      </c>
+      <c r="I44">
+        <v>-0.06050663700877176</v>
+      </c>
+      <c r="J44">
+        <v>-0.06735878574032343</v>
+      </c>
+      <c r="K44">
+        <v>0.01313313141123979</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.01138894877034985</v>
+        <v>-0.004955153516534793</v>
       </c>
       <c r="C46">
-        <v>-0.06085988163591082</v>
+        <v>-0.06400567985208168</v>
       </c>
       <c r="D46">
-        <v>-0.003067577795985458</v>
+        <v>-0.02159854812269624</v>
       </c>
       <c r="E46">
-        <v>0.07172215460219727</v>
+        <v>-0.01562690462249048</v>
       </c>
       <c r="F46">
-        <v>-0.02080619772316471</v>
+        <v>-0.01911994088815653</v>
       </c>
       <c r="G46">
-        <v>0.04626456472357895</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04836316574128998</v>
+      </c>
+      <c r="H46">
+        <v>0.1164990743183502</v>
+      </c>
+      <c r="I46">
+        <v>-0.008126271266076287</v>
+      </c>
+      <c r="J46">
+        <v>0.07858064251283871</v>
+      </c>
+      <c r="K46">
+        <v>0.04260394769830959</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.01646834189589508</v>
+        <v>-0.02447989485337471</v>
       </c>
       <c r="C47">
-        <v>-0.1184325804124524</v>
+        <v>-0.09908985514179466</v>
       </c>
       <c r="D47">
-        <v>0.03224600076172589</v>
+        <v>-0.03782061202012411</v>
       </c>
       <c r="E47">
-        <v>-0.05486087137761812</v>
+        <v>0.0005979492625071282</v>
       </c>
       <c r="F47">
-        <v>0.02755763479476981</v>
+        <v>0.03374736203085538</v>
       </c>
       <c r="G47">
-        <v>0.04305397248310667</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01793575662845557</v>
+      </c>
+      <c r="H47">
+        <v>0.08084903929658574</v>
+      </c>
+      <c r="I47">
+        <v>0.02940365757368702</v>
+      </c>
+      <c r="J47">
+        <v>0.03335557468629586</v>
+      </c>
+      <c r="K47">
+        <v>-0.04411518783039525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.02174761518714331</v>
+        <v>-0.02241872043843334</v>
       </c>
       <c r="C48">
-        <v>-0.05428649706939936</v>
+        <v>-0.05853380273703384</v>
       </c>
       <c r="D48">
-        <v>0.05212016955866948</v>
+        <v>-0.05029698845780504</v>
       </c>
       <c r="E48">
-        <v>0.05003779623345303</v>
+        <v>-0.0007872759884647069</v>
       </c>
       <c r="F48">
-        <v>-0.002184727247699132</v>
+        <v>-0.01287553150014307</v>
       </c>
       <c r="G48">
-        <v>0.01231884902699118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.004338150513238834</v>
+      </c>
+      <c r="H48">
+        <v>0.1044361729507204</v>
+      </c>
+      <c r="I48">
+        <v>-0.04081056932162138</v>
+      </c>
+      <c r="J48">
+        <v>-0.07310294759617811</v>
+      </c>
+      <c r="K48">
+        <v>-0.09047060525677453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.008744537741447789</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.01829491362584539</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-3.479459861055502e-05</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.01488639638740113</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.02328448508403564</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.02252828203530183</v>
+      </c>
+      <c r="H49">
+        <v>-0.01790014848572885</v>
+      </c>
+      <c r="I49">
+        <v>-0.03611144418216872</v>
+      </c>
+      <c r="J49">
+        <v>-0.01619973724831159</v>
+      </c>
+      <c r="K49">
+        <v>-0.003631036993822612</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.01254849474251978</v>
+        <v>-0.01551088126244982</v>
       </c>
       <c r="C50">
-        <v>-0.09721664499860032</v>
+        <v>-0.09093329224343638</v>
       </c>
       <c r="D50">
-        <v>0.01838370803454639</v>
+        <v>-0.02195556112092726</v>
       </c>
       <c r="E50">
-        <v>-0.01542533999788734</v>
+        <v>0.004663354311022705</v>
       </c>
       <c r="F50">
-        <v>0.006254898638294855</v>
+        <v>0.005838274022566399</v>
       </c>
       <c r="G50">
-        <v>-0.01726316541543249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.03185504803541888</v>
+      </c>
+      <c r="H50">
+        <v>0.06372253159821037</v>
+      </c>
+      <c r="I50">
+        <v>0.0464031686198435</v>
+      </c>
+      <c r="J50">
+        <v>0.03064491748015781</v>
+      </c>
+      <c r="K50">
+        <v>-0.01753792195023594</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.01422180636026891</v>
+        <v>0.004907661829733818</v>
       </c>
       <c r="C51">
-        <v>-0.06635658976920447</v>
+        <v>-0.04446344456649208</v>
       </c>
       <c r="D51">
-        <v>-0.04123772465881571</v>
+        <v>-0.01637288686031607</v>
       </c>
       <c r="E51">
-        <v>0.09223560465084393</v>
+        <v>-0.02579821497429233</v>
       </c>
       <c r="F51">
-        <v>-0.002808612856207193</v>
+        <v>-0.04153950673301916</v>
       </c>
       <c r="G51">
-        <v>-0.04485934127759162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.01351874013805487</v>
+      </c>
+      <c r="H51">
+        <v>0.08316817416051728</v>
+      </c>
+      <c r="I51">
+        <v>-0.03586762462615133</v>
+      </c>
+      <c r="J51">
+        <v>-0.1093049973355381</v>
+      </c>
+      <c r="K51">
+        <v>-0.01575562961377442</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.06171994629396754</v>
+        <v>-0.05993693789540693</v>
       </c>
       <c r="C53">
-        <v>-0.1404662453564153</v>
+        <v>-0.1348704322953217</v>
       </c>
       <c r="D53">
-        <v>0.07630217431711651</v>
+        <v>-0.04676610847765421</v>
       </c>
       <c r="E53">
-        <v>-0.0865293470519182</v>
+        <v>0.02838954066722854</v>
       </c>
       <c r="F53">
-        <v>-0.03274117073421544</v>
+        <v>0.0940541547732828</v>
       </c>
       <c r="G53">
-        <v>0.01481742184126888</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.0551593678952824</v>
+      </c>
+      <c r="H53">
+        <v>-0.004751702130314643</v>
+      </c>
+      <c r="I53">
+        <v>0.04303768233437176</v>
+      </c>
+      <c r="J53">
+        <v>0.02174647560796074</v>
+      </c>
+      <c r="K53">
+        <v>-0.08281417517289846</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.02272447276877548</v>
+        <v>-0.01855700048565098</v>
       </c>
       <c r="C54">
-        <v>-0.05494764670782722</v>
+        <v>-0.06958447805328191</v>
       </c>
       <c r="D54">
-        <v>-0.008780288094248807</v>
+        <v>-0.001988678697224739</v>
       </c>
       <c r="E54">
-        <v>0.02062028770008306</v>
+        <v>-0.002145940471010031</v>
       </c>
       <c r="F54">
-        <v>-0.0306496673730725</v>
+        <v>-0.003101429136366731</v>
       </c>
       <c r="G54">
-        <v>0.004451932281208456</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02756671861557373</v>
+      </c>
+      <c r="H54">
+        <v>0.06876937463323007</v>
+      </c>
+      <c r="I54">
+        <v>-0.02119253555037576</v>
+      </c>
+      <c r="J54">
+        <v>0.02703434115203886</v>
+      </c>
+      <c r="K54">
+        <v>0.01521972226036793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.04465579390533157</v>
+        <v>-0.03529121628223623</v>
       </c>
       <c r="C55">
-        <v>-0.1024225094181886</v>
+        <v>-0.09508766912852497</v>
       </c>
       <c r="D55">
-        <v>0.07692507742815419</v>
+        <v>-0.04877428804422878</v>
       </c>
       <c r="E55">
-        <v>-0.04445677009035648</v>
+        <v>0.02413853028579201</v>
       </c>
       <c r="F55">
-        <v>0.004378833574569849</v>
+        <v>0.0716977519117471</v>
       </c>
       <c r="G55">
-        <v>0.03249701719808581</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02510457714694619</v>
+      </c>
+      <c r="H55">
+        <v>-0.002515156434565031</v>
+      </c>
+      <c r="I55">
+        <v>-0.01192190325647626</v>
+      </c>
+      <c r="J55">
+        <v>0.01515560591186312</v>
+      </c>
+      <c r="K55">
+        <v>-0.05972885557799185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.05136013521285198</v>
+        <v>-0.04551168666691114</v>
       </c>
       <c r="C56">
-        <v>-0.1795351082214181</v>
+        <v>-0.1637471165124817</v>
       </c>
       <c r="D56">
-        <v>0.08419565234103141</v>
+        <v>-0.06791216230200633</v>
       </c>
       <c r="E56">
-        <v>-0.1337482537682148</v>
+        <v>0.02682432508468691</v>
       </c>
       <c r="F56">
-        <v>0.01072193564140252</v>
+        <v>0.1399842373234595</v>
       </c>
       <c r="G56">
-        <v>0.00910841093446303</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1115877708557266</v>
+      </c>
+      <c r="H56">
+        <v>-0.02434705490575817</v>
+      </c>
+      <c r="I56">
+        <v>0.03242541116805608</v>
+      </c>
+      <c r="J56">
+        <v>-0.01703294321881736</v>
+      </c>
+      <c r="K56">
+        <v>-0.05165936316125126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.05843939335126054</v>
+        <v>-0.02196366207123695</v>
       </c>
       <c r="C58">
-        <v>-0.2198116060985755</v>
+        <v>-0.181466245042909</v>
       </c>
       <c r="D58">
-        <v>-0.1762294700975426</v>
+        <v>-0.01286504310085248</v>
       </c>
       <c r="E58">
-        <v>0.1619438448080605</v>
+        <v>-0.06615043243093373</v>
       </c>
       <c r="F58">
-        <v>-0.001629514934274656</v>
+        <v>-0.298018743212165</v>
       </c>
       <c r="G58">
-        <v>-0.3955900216247393</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1834338676363043</v>
+      </c>
+      <c r="H58">
+        <v>-0.0177283579255463</v>
+      </c>
+      <c r="I58">
+        <v>-0.002554002806800132</v>
+      </c>
+      <c r="J58">
+        <v>-0.3893084485457857</v>
+      </c>
+      <c r="K58">
+        <v>0.2457916892237064</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2786351661118931</v>
+        <v>-0.2859689080368188</v>
       </c>
       <c r="C59">
-        <v>0.0540214043542921</v>
+        <v>0.05115300442927935</v>
       </c>
       <c r="D59">
-        <v>-0.02528227966435671</v>
+        <v>0.002934732776600032</v>
       </c>
       <c r="E59">
-        <v>0.02020975467982366</v>
+        <v>-0.02922950395567351</v>
       </c>
       <c r="F59">
-        <v>0.05541238913132549</v>
+        <v>-0.02271748966517614</v>
       </c>
       <c r="G59">
-        <v>0.04091996214387091</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.0120461788359752</v>
+      </c>
+      <c r="H59">
+        <v>-0.02230857649121529</v>
+      </c>
+      <c r="I59">
+        <v>0.03560042230380978</v>
+      </c>
+      <c r="J59">
+        <v>0.01141239496054744</v>
+      </c>
+      <c r="K59">
+        <v>-0.02377135258206573</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1270008601740431</v>
+        <v>-0.1508411382389091</v>
       </c>
       <c r="C60">
-        <v>-0.1201795099473258</v>
+        <v>-0.1425197632239115</v>
       </c>
       <c r="D60">
-        <v>0.03997791697166496</v>
+        <v>-0.0349370827807472</v>
       </c>
       <c r="E60">
-        <v>0.08344438007192884</v>
+        <v>-0.02793564963304359</v>
       </c>
       <c r="F60">
-        <v>-0.09676934676455991</v>
+        <v>0.0693880200851815</v>
       </c>
       <c r="G60">
-        <v>0.2962470509962853</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2778117667621844</v>
+      </c>
+      <c r="H60">
+        <v>-0.2423268247002102</v>
+      </c>
+      <c r="I60">
+        <v>-0.03342619408892931</v>
+      </c>
+      <c r="J60">
+        <v>-0.01726264106770322</v>
+      </c>
+      <c r="K60">
+        <v>0.09754189415608808</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.01597986994894413</v>
+        <v>-0.02084961575445264</v>
       </c>
       <c r="C61">
-        <v>-0.09635685855859921</v>
+        <v>-0.1042427123819941</v>
       </c>
       <c r="D61">
-        <v>0.03441028921756406</v>
+        <v>-0.0448796355489094</v>
       </c>
       <c r="E61">
-        <v>0.05125210376899591</v>
+        <v>-0.0009677092551150126</v>
       </c>
       <c r="F61">
-        <v>-0.03454576345161584</v>
+        <v>0.01062909847046268</v>
       </c>
       <c r="G61">
-        <v>0.07026924227797297</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.04958825490497304</v>
+      </c>
+      <c r="H61">
+        <v>0.05089164878947235</v>
+      </c>
+      <c r="I61">
+        <v>-0.03100840200275138</v>
+      </c>
+      <c r="J61">
+        <v>0.02738463139666174</v>
+      </c>
+      <c r="K61">
+        <v>-0.04346874944223603</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.001167024246962969</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.004962445817312086</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.001050626630440369</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.005243060109453265</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01649841123486599</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.01972847617726161</v>
+      </c>
+      <c r="H62">
+        <v>0.006149297202198638</v>
+      </c>
+      <c r="I62">
+        <v>-0.007316498827712226</v>
+      </c>
+      <c r="J62">
+        <v>0.005682673031212089</v>
+      </c>
+      <c r="K62">
+        <v>0.005563107895488535</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.01015719573351459</v>
+        <v>-0.02541525289864427</v>
       </c>
       <c r="C63">
-        <v>-0.06507184060542925</v>
+        <v>-0.07531086537002331</v>
       </c>
       <c r="D63">
-        <v>0.01377562314382817</v>
+        <v>-0.04688122882030098</v>
       </c>
       <c r="E63">
-        <v>0.03124011615595684</v>
+        <v>-0.004768908627624105</v>
       </c>
       <c r="F63">
-        <v>-0.02670368266168033</v>
+        <v>0.001021388045815945</v>
       </c>
       <c r="G63">
-        <v>0.02958760360447649</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.02468770210727789</v>
+      </c>
+      <c r="H63">
+        <v>0.0605242534988842</v>
+      </c>
+      <c r="I63">
+        <v>-0.01145685494084097</v>
+      </c>
+      <c r="J63">
+        <v>0.02353680580999814</v>
+      </c>
+      <c r="K63">
+        <v>-0.05559513696649825</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.0185406372973156</v>
+        <v>-0.02132017507623808</v>
       </c>
       <c r="C64">
-        <v>-0.1047978983585673</v>
+        <v>-0.09825848136139471</v>
       </c>
       <c r="D64">
-        <v>0.03826911566590879</v>
+        <v>-0.02891457157425675</v>
       </c>
       <c r="E64">
-        <v>0.03649486947553109</v>
+        <v>0.01711155713658409</v>
       </c>
       <c r="F64">
-        <v>-0.02077868959132862</v>
+        <v>-0.05557534255704737</v>
       </c>
       <c r="G64">
-        <v>0.0179206477699787</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.01503739920551806</v>
+      </c>
+      <c r="H64">
+        <v>0.0284202420454018</v>
+      </c>
+      <c r="I64">
+        <v>-0.01763551461548048</v>
+      </c>
+      <c r="J64">
+        <v>0.03411594701164379</v>
+      </c>
+      <c r="K64">
+        <v>-0.109492028708814</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.03180205793358738</v>
+        <v>-0.03299914830051043</v>
       </c>
       <c r="C65">
-        <v>-0.05834458121152448</v>
+        <v>-0.08374565734206872</v>
       </c>
       <c r="D65">
-        <v>-0.028498991517806</v>
+        <v>-0.005779814354748584</v>
       </c>
       <c r="E65">
-        <v>0.08933394342471526</v>
+        <v>4.390271896319565e-05</v>
       </c>
       <c r="F65">
-        <v>-0.0355714164540671</v>
+        <v>-0.07614211781353267</v>
       </c>
       <c r="G65">
-        <v>0.03759800700423815</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.1207892253199812</v>
+      </c>
+      <c r="H65">
+        <v>-0.0127610899162966</v>
+      </c>
+      <c r="I65">
+        <v>-0.0772378897806219</v>
+      </c>
+      <c r="J65">
+        <v>-0.06640696211157836</v>
+      </c>
+      <c r="K65">
+        <v>0.0255847347778314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.01781813019376342</v>
+        <v>-0.01493728294995507</v>
       </c>
       <c r="C66">
-        <v>-0.1609940746823774</v>
+        <v>-0.16254467688771</v>
       </c>
       <c r="D66">
-        <v>-0.03102295440053927</v>
+        <v>-0.03156575615351589</v>
       </c>
       <c r="E66">
-        <v>0.1159221968977231</v>
+        <v>-0.02141634823727298</v>
       </c>
       <c r="F66">
-        <v>-0.02070731468949402</v>
+        <v>-0.03741661786043354</v>
       </c>
       <c r="G66">
-        <v>0.04631152645534687</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03898659842254872</v>
+      </c>
+      <c r="H66">
+        <v>0.04063441790575711</v>
+      </c>
+      <c r="I66">
+        <v>-0.0406746107112936</v>
+      </c>
+      <c r="J66">
+        <v>-0.009380709949545219</v>
+      </c>
+      <c r="K66">
+        <v>-0.0339008134278249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02639002214566046</v>
+        <v>-0.02258480210026549</v>
       </c>
       <c r="C67">
-        <v>-0.03667946528649955</v>
+        <v>-0.05532379126928792</v>
       </c>
       <c r="D67">
-        <v>0.05492542088213438</v>
+        <v>-0.03729416314333307</v>
       </c>
       <c r="E67">
-        <v>0.01343819499620675</v>
+        <v>0.02916371933578718</v>
       </c>
       <c r="F67">
-        <v>-0.02120280660099508</v>
+        <v>-0.00126878655088268</v>
       </c>
       <c r="G67">
-        <v>0.01983465948768003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03123023047992151</v>
+      </c>
+      <c r="H67">
+        <v>0.05413318808389275</v>
+      </c>
+      <c r="I67">
+        <v>0.05177118374247989</v>
+      </c>
+      <c r="J67">
+        <v>0.04051144659268136</v>
+      </c>
+      <c r="K67">
+        <v>-0.04927573618273735</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2662519227132755</v>
+        <v>-0.2932740848807693</v>
       </c>
       <c r="C68">
-        <v>0.07364931902573707</v>
+        <v>0.05925076232045023</v>
       </c>
       <c r="D68">
-        <v>-0.01631146150995703</v>
+        <v>0.02978868290455229</v>
       </c>
       <c r="E68">
-        <v>-0.0007809992613614512</v>
+        <v>-0.01788880034857187</v>
       </c>
       <c r="F68">
-        <v>0.01249243619252746</v>
+        <v>-0.03291232624635158</v>
       </c>
       <c r="G68">
-        <v>-0.04166199273648703</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.03192708005051217</v>
+      </c>
+      <c r="H68">
+        <v>-0.01091243372030749</v>
+      </c>
+      <c r="I68">
+        <v>0.05172766654982679</v>
+      </c>
+      <c r="J68">
+        <v>-0.01523631273671125</v>
+      </c>
+      <c r="K68">
+        <v>-0.01742579932744576</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.01670991565880407</v>
+        <v>-0.009524355711182901</v>
       </c>
       <c r="C69">
-        <v>-0.1035135618300554</v>
+        <v>-0.07907652436636385</v>
       </c>
       <c r="D69">
-        <v>0.06763790547494294</v>
+        <v>-0.02694839775997663</v>
       </c>
       <c r="E69">
-        <v>-0.01875168161850139</v>
+        <v>0.004737093021436015</v>
       </c>
       <c r="F69">
-        <v>0.002288473237463445</v>
+        <v>0.02056155976097531</v>
       </c>
       <c r="G69">
-        <v>-0.004939895768175129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.003110994769369054</v>
+      </c>
+      <c r="H69">
+        <v>0.06066165757912798</v>
+      </c>
+      <c r="I69">
+        <v>0.02057462724876275</v>
+      </c>
+      <c r="J69">
+        <v>0.003583561474325711</v>
+      </c>
+      <c r="K69">
+        <v>-0.05318963151584529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2758417216743193</v>
+        <v>-0.2751433350835858</v>
       </c>
       <c r="C71">
-        <v>0.08962953572291457</v>
+        <v>0.08209832327020178</v>
       </c>
       <c r="D71">
-        <v>-0.0250635549826066</v>
+        <v>0.01641564855127367</v>
       </c>
       <c r="E71">
-        <v>0.007985987406650045</v>
+        <v>0.009412450069148705</v>
       </c>
       <c r="F71">
-        <v>-0.01776844395833075</v>
+        <v>-0.0516129360927621</v>
       </c>
       <c r="G71">
-        <v>-0.02814788680838336</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02782415343239033</v>
+      </c>
+      <c r="H71">
+        <v>0.04778554397180876</v>
+      </c>
+      <c r="I71">
+        <v>0.1178854942342537</v>
+      </c>
+      <c r="J71">
+        <v>-0.06122820294530718</v>
+      </c>
+      <c r="K71">
+        <v>-0.04899897422865033</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.05073762732365785</v>
+        <v>-0.05902386902920995</v>
       </c>
       <c r="C72">
-        <v>-0.1549782014080205</v>
+        <v>-0.1452770167562311</v>
       </c>
       <c r="D72">
-        <v>0.009443166372667915</v>
+        <v>-0.02227644360155474</v>
       </c>
       <c r="E72">
-        <v>0.1215552529461228</v>
+        <v>-0.0039593741530182</v>
       </c>
       <c r="F72">
-        <v>-0.07887732332867879</v>
+        <v>-0.01540738091182613</v>
       </c>
       <c r="G72">
-        <v>0.04170405388939388</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.05836475628047818</v>
+      </c>
+      <c r="H72">
+        <v>-0.02714671399062945</v>
+      </c>
+      <c r="I72">
+        <v>-0.09319057790098086</v>
+      </c>
+      <c r="J72">
+        <v>-0.0446610406043486</v>
+      </c>
+      <c r="K72">
+        <v>-0.01273221703328121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.09671715873177057</v>
+        <v>-0.1538898629800133</v>
       </c>
       <c r="C73">
-        <v>-0.1466911071746956</v>
+        <v>-0.1897972403491092</v>
       </c>
       <c r="D73">
-        <v>0.07841000623343326</v>
+        <v>-0.06300861656746194</v>
       </c>
       <c r="E73">
-        <v>0.1034390445166204</v>
+        <v>0.004530245138637946</v>
       </c>
       <c r="F73">
-        <v>-0.1471239781390991</v>
+        <v>0.1442546541244795</v>
       </c>
       <c r="G73">
-        <v>0.369769006412845</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.4215892483165846</v>
+      </c>
+      <c r="H73">
+        <v>-0.3018190403309925</v>
+      </c>
+      <c r="I73">
+        <v>0.0652710918900771</v>
+      </c>
+      <c r="J73">
+        <v>-0.1096667469428284</v>
+      </c>
+      <c r="K73">
+        <v>0.06581981477946736</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.02493091915494758</v>
+        <v>-0.03737566795894687</v>
       </c>
       <c r="C74">
-        <v>-0.1063082497641524</v>
+        <v>-0.1075736730653506</v>
       </c>
       <c r="D74">
-        <v>0.07845824465458588</v>
+        <v>-0.03952521975054615</v>
       </c>
       <c r="E74">
-        <v>-0.06797552491434247</v>
+        <v>0.02630852263765348</v>
       </c>
       <c r="F74">
-        <v>0.009899842149520159</v>
+        <v>0.07102171697468997</v>
       </c>
       <c r="G74">
-        <v>0.01171102829335795</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.03614344662251018</v>
+      </c>
+      <c r="H74">
+        <v>0.008168071355934841</v>
+      </c>
+      <c r="I74">
+        <v>-0.007987372048614622</v>
+      </c>
+      <c r="J74">
+        <v>-0.006280599741875014</v>
+      </c>
+      <c r="K74">
+        <v>-0.07302885037057377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.08123454116378422</v>
+        <v>-0.06473385661236468</v>
       </c>
       <c r="C75">
-        <v>-0.1773737273665606</v>
+        <v>-0.181389308312228</v>
       </c>
       <c r="D75">
-        <v>0.1408222355456973</v>
+        <v>-0.07570182203446782</v>
       </c>
       <c r="E75">
-        <v>-0.2177886501932093</v>
+        <v>0.1203437829907163</v>
       </c>
       <c r="F75">
-        <v>0.01045524970053361</v>
+        <v>0.1685186189147787</v>
       </c>
       <c r="G75">
-        <v>-0.05408138214337956</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1746500863997861</v>
+      </c>
+      <c r="H75">
+        <v>-0.01857334665807026</v>
+      </c>
+      <c r="I75">
+        <v>0.131615509625937</v>
+      </c>
+      <c r="J75">
+        <v>0.06711173289565288</v>
+      </c>
+      <c r="K75">
+        <v>-0.05232432949742379</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.05047187666821323</v>
+        <v>-0.04352819843047646</v>
       </c>
       <c r="C76">
-        <v>-0.1281649181350455</v>
+        <v>-0.1330668544387487</v>
       </c>
       <c r="D76">
-        <v>0.082988575768373</v>
+        <v>-0.06281158885771702</v>
       </c>
       <c r="E76">
-        <v>-0.08402818560141909</v>
+        <v>0.04235575357365363</v>
       </c>
       <c r="F76">
-        <v>0.004219995557071933</v>
+        <v>0.1011375232594688</v>
       </c>
       <c r="G76">
-        <v>0.05760190906107177</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.0429246175461343</v>
+      </c>
+      <c r="H76">
+        <v>0.0009419879256098952</v>
+      </c>
+      <c r="I76">
+        <v>-0.000125796721086071</v>
+      </c>
+      <c r="J76">
+        <v>0.03261488859051156</v>
+      </c>
+      <c r="K76">
+        <v>-0.142912487229104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.1077312855365562</v>
+        <v>-0.04916026541374505</v>
       </c>
       <c r="C77">
-        <v>-0.1925178249194638</v>
+        <v>-0.3105930393895789</v>
       </c>
       <c r="D77">
-        <v>-0.7747331032125634</v>
+        <v>0.9352664420707384</v>
       </c>
       <c r="E77">
-        <v>-0.4455336862936268</v>
+        <v>0.0681847576637231</v>
       </c>
       <c r="F77">
-        <v>-0.241168096265461</v>
+        <v>0.06266607429172491</v>
       </c>
       <c r="G77">
-        <v>0.1398512251342839</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.002717969681249219</v>
+      </c>
+      <c r="H77">
+        <v>0.05240983920207035</v>
+      </c>
+      <c r="I77">
+        <v>-0.002390051063016227</v>
+      </c>
+      <c r="J77">
+        <v>0.005619547427306349</v>
+      </c>
+      <c r="K77">
+        <v>-0.005224147854024993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.05872106041478747</v>
+        <v>-0.03806878297819323</v>
       </c>
       <c r="C78">
-        <v>-0.1691684485876995</v>
+        <v>-0.1282448402881077</v>
       </c>
       <c r="D78">
-        <v>0.03665370080638422</v>
+        <v>-0.08495193254895832</v>
       </c>
       <c r="E78">
-        <v>0.02474043143283491</v>
+        <v>-0.02794746021137144</v>
       </c>
       <c r="F78">
-        <v>0.1667404000073642</v>
+        <v>0.03559633198026396</v>
       </c>
       <c r="G78">
-        <v>-0.04246494544478824</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1201333574824223</v>
+      </c>
+      <c r="H78">
+        <v>0.07378419056888531</v>
+      </c>
+      <c r="I78">
+        <v>-0.1762274959766451</v>
+      </c>
+      <c r="J78">
+        <v>-0.4580456448636006</v>
+      </c>
+      <c r="K78">
+        <v>0.000406610991895516</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.06249500719712887</v>
+        <v>-0.05945125218389038</v>
       </c>
       <c r="C79">
-        <v>-0.2155429015909168</v>
+        <v>-0.16784621919453</v>
       </c>
       <c r="D79">
-        <v>0.1462950226485133</v>
+        <v>-0.05931418723515906</v>
       </c>
       <c r="E79">
-        <v>-0.2068505530094309</v>
+        <v>0.04284188745538759</v>
       </c>
       <c r="F79">
-        <v>0.115377599289282</v>
+        <v>0.1551869369564235</v>
       </c>
       <c r="G79">
-        <v>-0.03531582318942648</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2071790761395328</v>
+      </c>
+      <c r="H79">
+        <v>0.01580994020282432</v>
+      </c>
+      <c r="I79">
+        <v>0.08548645574953935</v>
+      </c>
+      <c r="J79">
+        <v>-0.02824960543551065</v>
+      </c>
+      <c r="K79">
+        <v>-0.05901206048279437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.0166736292743579</v>
+        <v>-0.02065428944353815</v>
       </c>
       <c r="C80">
-        <v>-0.06174280757529681</v>
+        <v>-0.05741287770519064</v>
       </c>
       <c r="D80">
-        <v>0.03552822493783168</v>
+        <v>-0.03973705219815742</v>
       </c>
       <c r="E80">
-        <v>-0.0125666426659751</v>
+        <v>-0.05099538648695297</v>
       </c>
       <c r="F80">
-        <v>0.004720569908575565</v>
+        <v>-0.002691167437496521</v>
       </c>
       <c r="G80">
-        <v>0.03045295116671749</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04173437215446316</v>
+      </c>
+      <c r="H80">
+        <v>-0.0386943801828354</v>
+      </c>
+      <c r="I80">
+        <v>0.05925668776676306</v>
+      </c>
+      <c r="J80">
+        <v>0.08748327205713209</v>
+      </c>
+      <c r="K80">
+        <v>-0.05339820871883007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.02309977381397877</v>
+        <v>-0.01804613772046614</v>
       </c>
       <c r="C81">
-        <v>-0.1161474094690394</v>
+        <v>-0.1120740807510288</v>
       </c>
       <c r="D81">
-        <v>0.106641910747287</v>
+        <v>-0.04393684688505323</v>
       </c>
       <c r="E81">
-        <v>-0.1542488909265712</v>
+        <v>0.02840139497229061</v>
       </c>
       <c r="F81">
-        <v>0.02257207871828526</v>
+        <v>0.09225306602424239</v>
       </c>
       <c r="G81">
-        <v>0.02028003183374741</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1054810081787545</v>
+      </c>
+      <c r="H81">
+        <v>0.05679763099988346</v>
+      </c>
+      <c r="I81">
+        <v>0.05833772811182186</v>
+      </c>
+      <c r="J81">
+        <v>0.03009751607980411</v>
+      </c>
+      <c r="K81">
+        <v>-0.1020930859424756</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.0508626037213376</v>
+        <v>-0.04823885949911905</v>
       </c>
       <c r="C82">
-        <v>-0.122933574617846</v>
+        <v>-0.1177351852696418</v>
       </c>
       <c r="D82">
-        <v>0.1106106231713234</v>
+        <v>-0.06330029835556231</v>
       </c>
       <c r="E82">
-        <v>-0.09182041308060056</v>
+        <v>0.03309788452606621</v>
       </c>
       <c r="F82">
-        <v>-0.01107122707499577</v>
+        <v>0.1023005182498213</v>
       </c>
       <c r="G82">
-        <v>0.05068292753760853</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.06324402023877693</v>
+      </c>
+      <c r="H82">
+        <v>0.01872275657061309</v>
+      </c>
+      <c r="I82">
+        <v>0.02424724773365763</v>
+      </c>
+      <c r="J82">
+        <v>0.01235046851231796</v>
+      </c>
+      <c r="K82">
+        <v>-0.1179593050369868</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.007879806704798938</v>
+        <v>0.001151954276123004</v>
       </c>
       <c r="C83">
-        <v>-0.03927116336455296</v>
+        <v>-0.00196543334576976</v>
       </c>
       <c r="D83">
-        <v>-0.2382436655310419</v>
+        <v>0.05918506997367626</v>
       </c>
       <c r="E83">
-        <v>0.01436836217042498</v>
+        <v>-0.9214211402054037</v>
       </c>
       <c r="F83">
-        <v>0.8525816777477114</v>
+        <v>0.2528176946591934</v>
       </c>
       <c r="G83">
-        <v>0.3103685478216834</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.1214534761582114</v>
+      </c>
+      <c r="H83">
+        <v>-0.09076146634288412</v>
+      </c>
+      <c r="I83">
+        <v>-0.04598668798818764</v>
+      </c>
+      <c r="J83">
+        <v>0.01908455239647588</v>
+      </c>
+      <c r="K83">
+        <v>-0.09036809290648648</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.003532218861903612</v>
+        <v>-0.0001215031377810724</v>
       </c>
       <c r="C84">
-        <v>-0.04151930466618568</v>
+        <v>-0.03940222135165693</v>
       </c>
       <c r="D84">
-        <v>-0.002316564655259413</v>
+        <v>-0.05782201708876712</v>
       </c>
       <c r="E84">
-        <v>0.08245900940929637</v>
+        <v>0.0001507560352745608</v>
       </c>
       <c r="F84">
-        <v>-0.02089818896768733</v>
+        <v>-0.09468868625844562</v>
       </c>
       <c r="G84">
-        <v>-0.1534357305897734</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.05357279348267045</v>
+      </c>
+      <c r="H84">
+        <v>0.06867168538766352</v>
+      </c>
+      <c r="I84">
+        <v>-0.09329332187367452</v>
+      </c>
+      <c r="J84">
+        <v>0.06530144023008935</v>
+      </c>
+      <c r="K84">
+        <v>-0.06381883657524506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.04803509017186189</v>
+        <v>-0.03324018093650064</v>
       </c>
       <c r="C85">
-        <v>-0.1554510733284211</v>
+        <v>-0.1301565735994537</v>
       </c>
       <c r="D85">
-        <v>0.1300175195504054</v>
+        <v>-0.07046113567143533</v>
       </c>
       <c r="E85">
-        <v>-0.1922649802769985</v>
+        <v>0.0637089614237156</v>
       </c>
       <c r="F85">
-        <v>0.05577020523976293</v>
+        <v>0.1790844074809714</v>
       </c>
       <c r="G85">
-        <v>-0.009144289200986361</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1410450904081186</v>
+      </c>
+      <c r="H85">
+        <v>-0.004683338564498661</v>
+      </c>
+      <c r="I85">
+        <v>0.08651914506719589</v>
+      </c>
+      <c r="J85">
+        <v>0.05225148076609753</v>
+      </c>
+      <c r="K85">
+        <v>-0.157941873189186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.03997152052633897</v>
+        <v>-0.01736447269120277</v>
       </c>
       <c r="C86">
-        <v>-0.05079605009706082</v>
+        <v>-0.07438159818062615</v>
       </c>
       <c r="D86">
-        <v>-0.06120828329766291</v>
+        <v>-0.02033113159909563</v>
       </c>
       <c r="E86">
-        <v>0.05661537591896115</v>
+        <v>-0.02142511076698624</v>
       </c>
       <c r="F86">
-        <v>-0.04018910451716777</v>
+        <v>-0.06801121801430307</v>
       </c>
       <c r="G86">
-        <v>-0.02597263334802467</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.0889122081489023</v>
+      </c>
+      <c r="H86">
+        <v>0.0585919742287847</v>
+      </c>
+      <c r="I86">
+        <v>0.1267402500656533</v>
+      </c>
+      <c r="J86">
+        <v>-0.1522279385006298</v>
+      </c>
+      <c r="K86">
+        <v>0.01146844012147901</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.06291017592918403</v>
+        <v>-0.02485033941244434</v>
       </c>
       <c r="C87">
-        <v>-0.1350968567663883</v>
+        <v>-0.1269221918506839</v>
       </c>
       <c r="D87">
-        <v>-0.04030490248291877</v>
+        <v>-0.00514906324292059</v>
       </c>
       <c r="E87">
-        <v>0.1026478611927828</v>
+        <v>-0.01922339016072284</v>
       </c>
       <c r="F87">
-        <v>0.007146638312751912</v>
+        <v>-0.08289102891620651</v>
       </c>
       <c r="G87">
-        <v>-0.01875709345890166</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.01647528966841767</v>
+      </c>
+      <c r="H87">
+        <v>0.009575661293809726</v>
+      </c>
+      <c r="I87">
+        <v>-0.1275683898169958</v>
+      </c>
+      <c r="J87">
+        <v>-0.06964539529149347</v>
+      </c>
+      <c r="K87">
+        <v>-0.06280372181075058</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.01570664270819936</v>
+        <v>-0.03830449860707944</v>
       </c>
       <c r="C88">
-        <v>-0.06451695816732833</v>
+        <v>-0.07953323024202609</v>
       </c>
       <c r="D88">
-        <v>0.06430296985080476</v>
+        <v>-0.03859822961948886</v>
       </c>
       <c r="E88">
-        <v>-0.02463622055117889</v>
+        <v>0.0172017035908744</v>
       </c>
       <c r="F88">
-        <v>-0.03699579449307942</v>
+        <v>0.007974569004427327</v>
       </c>
       <c r="G88">
-        <v>0.03092003445110204</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.0245717629546385</v>
+      </c>
+      <c r="H88">
+        <v>-0.0003350726641483324</v>
+      </c>
+      <c r="I88">
+        <v>0.02476115384988134</v>
+      </c>
+      <c r="J88">
+        <v>0.09402699705095635</v>
+      </c>
+      <c r="K88">
+        <v>-0.08712026476888061</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.3886571040045653</v>
+        <v>-0.3923376998401692</v>
       </c>
       <c r="C89">
-        <v>0.1301838621568562</v>
+        <v>0.1162895921412157</v>
       </c>
       <c r="D89">
-        <v>0.1181446334984295</v>
+        <v>0.02052637806015247</v>
       </c>
       <c r="E89">
-        <v>0.08089587729926484</v>
+        <v>0.007538667020824295</v>
       </c>
       <c r="F89">
-        <v>0.08279038260128779</v>
+        <v>-0.06660369806222956</v>
       </c>
       <c r="G89">
-        <v>-0.07757325133570928</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02679609855444024</v>
+      </c>
+      <c r="H89">
+        <v>-0.01924305936938072</v>
+      </c>
+      <c r="I89">
+        <v>-0.7350466653368932</v>
+      </c>
+      <c r="J89">
+        <v>0.1285742338093989</v>
+      </c>
+      <c r="K89">
+        <v>-0.05516501165914012</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.2875800526871996</v>
+        <v>-0.3097441158760214</v>
       </c>
       <c r="C90">
-        <v>0.06021847200554623</v>
+        <v>0.06997407544059946</v>
       </c>
       <c r="D90">
-        <v>-0.0206400213060026</v>
+        <v>0.006588585111342612</v>
       </c>
       <c r="E90">
-        <v>0.02192529350192485</v>
+        <v>-0.02456053646674466</v>
       </c>
       <c r="F90">
-        <v>0.04402948482092901</v>
+        <v>-0.009986910973539254</v>
       </c>
       <c r="G90">
-        <v>0.02098596210701531</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.008904531979276192</v>
+      </c>
+      <c r="H90">
+        <v>0.009176158301647492</v>
+      </c>
+      <c r="I90">
+        <v>0.08793423210813053</v>
+      </c>
+      <c r="J90">
+        <v>-0.02596210318339793</v>
+      </c>
+      <c r="K90">
+        <v>0.002167804077568696</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.05094310512608819</v>
+        <v>-0.05430456794522404</v>
       </c>
       <c r="C91">
-        <v>-0.1211941112886312</v>
+        <v>-0.107020457713466</v>
       </c>
       <c r="D91">
-        <v>0.0699358984451256</v>
+        <v>-0.03589775086208379</v>
       </c>
       <c r="E91">
-        <v>-0.1096141666441044</v>
+        <v>-0.000451269594545759</v>
       </c>
       <c r="F91">
-        <v>0.03269434163303622</v>
+        <v>0.09709058566542954</v>
       </c>
       <c r="G91">
-        <v>0.0001757955975264937</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.07633206367804658</v>
+      </c>
+      <c r="H91">
+        <v>-0.007389231047532582</v>
+      </c>
+      <c r="I91">
+        <v>0.01234990046848243</v>
+      </c>
+      <c r="J91">
+        <v>0.05038711719465575</v>
+      </c>
+      <c r="K91">
+        <v>-0.05147287747724286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3669001161355323</v>
+        <v>-0.3522120187756624</v>
       </c>
       <c r="C92">
-        <v>0.1572443424386208</v>
+        <v>0.1365654030666207</v>
       </c>
       <c r="D92">
-        <v>-0.008573249873212905</v>
+        <v>0.04266226580532405</v>
       </c>
       <c r="E92">
-        <v>0.0159082519469138</v>
+        <v>0.02296843249679721</v>
       </c>
       <c r="F92">
-        <v>-0.0922081049692173</v>
+        <v>-0.0732707146601654</v>
       </c>
       <c r="G92">
-        <v>-0.04116636269659558</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.03126725378199169</v>
+      </c>
+      <c r="H92">
+        <v>0.08297427977126756</v>
+      </c>
+      <c r="I92">
+        <v>0.1674643331824303</v>
+      </c>
+      <c r="J92">
+        <v>-0.01591113447012036</v>
+      </c>
+      <c r="K92">
+        <v>0.06500487205566541</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.2897123953514827</v>
+        <v>-0.3080445537712684</v>
       </c>
       <c r="C93">
-        <v>0.1039956119223954</v>
+        <v>0.1151882389038342</v>
       </c>
       <c r="D93">
-        <v>0.008125010370939051</v>
+        <v>-0.003981723791429673</v>
       </c>
       <c r="E93">
-        <v>0.02005537216538342</v>
+        <v>-0.01040298705695982</v>
       </c>
       <c r="F93">
-        <v>0.02317171255673334</v>
+        <v>-0.02674268894215591</v>
       </c>
       <c r="G93">
-        <v>-0.04928654893684372</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.05713481754051479</v>
+      </c>
+      <c r="H93">
+        <v>0.03608341857327595</v>
+      </c>
+      <c r="I93">
+        <v>0.1118546931156597</v>
+      </c>
+      <c r="J93">
+        <v>-0.0215358558633497</v>
+      </c>
+      <c r="K93">
+        <v>-0.03530025848366407</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.09091682986603807</v>
+        <v>-0.07841757422349463</v>
       </c>
       <c r="C94">
-        <v>-0.2239425302627363</v>
+        <v>-0.1807052355352961</v>
       </c>
       <c r="D94">
-        <v>0.2163289167360216</v>
+        <v>-0.08884438705991175</v>
       </c>
       <c r="E94">
-        <v>-0.373688519584606</v>
+        <v>0.117519946129047</v>
       </c>
       <c r="F94">
-        <v>0.1198515207691833</v>
+        <v>0.3000850624885222</v>
       </c>
       <c r="G94">
-        <v>-0.3198891313073848</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.4055969270343325</v>
+      </c>
+      <c r="H94">
+        <v>-0.1357717678356714</v>
+      </c>
+      <c r="I94">
+        <v>-0.147403315685512</v>
+      </c>
+      <c r="J94">
+        <v>0.2618573767580308</v>
+      </c>
+      <c r="K94">
+        <v>0.5767693381848605</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.02796997016850896</v>
+        <v>-0.03831147916447428</v>
       </c>
       <c r="C95">
-        <v>-0.07159808030459608</v>
+        <v>-0.1186367231919304</v>
       </c>
       <c r="D95">
-        <v>0.02871189454591328</v>
+        <v>-0.03635049260301387</v>
       </c>
       <c r="E95">
-        <v>0.03052847483501226</v>
+        <v>0.04081108605384859</v>
       </c>
       <c r="F95">
-        <v>-0.05699532163455643</v>
+        <v>-0.005407482390616069</v>
       </c>
       <c r="G95">
-        <v>0.1825886363777204</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.1237958232229869</v>
+      </c>
+      <c r="H95">
+        <v>0.06754679278392421</v>
+      </c>
+      <c r="I95">
+        <v>-0.1167072803358951</v>
+      </c>
+      <c r="J95">
+        <v>0.1751753587847321</v>
+      </c>
+      <c r="K95">
+        <v>-0.3112597844374653</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.01028243769262054</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.01783358893510691</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.02010395791259445</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.02517850348274644</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>-0.0354662937218858</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.0406177887808194</v>
+      </c>
+      <c r="H97">
+        <v>0.002514669682320917</v>
+      </c>
+      <c r="I97">
+        <v>-0.02752448510476388</v>
+      </c>
+      <c r="J97">
+        <v>-0.009183206922016605</v>
+      </c>
+      <c r="K97">
+        <v>0.01020086219480418</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.08836353659974994</v>
+        <v>-0.1336711336032228</v>
       </c>
       <c r="C98">
-        <v>-0.1511281255675923</v>
+        <v>-0.1589945622085496</v>
       </c>
       <c r="D98">
-        <v>0.0437246294892093</v>
+        <v>-0.07690621584804162</v>
       </c>
       <c r="E98">
-        <v>0.08877239556765049</v>
+        <v>0.005996761722537781</v>
       </c>
       <c r="F98">
-        <v>-0.1016430962559083</v>
+        <v>0.1301008520061289</v>
       </c>
       <c r="G98">
-        <v>0.2341570481563318</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3647274887440342</v>
+      </c>
+      <c r="H98">
+        <v>-0.3247849324552577</v>
+      </c>
+      <c r="I98">
+        <v>0.07856934745247428</v>
+      </c>
+      <c r="J98">
+        <v>-0.1117649168412344</v>
+      </c>
+      <c r="K98">
+        <v>0.1930132020978026</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.004801631556803312</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.01101379961795733</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.001775959744871467</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.01264458749351225</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.01625806790362539</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.002065815280232058</v>
+      </c>
+      <c r="H99">
+        <v>0.0737007037323686</v>
+      </c>
+      <c r="I99">
+        <v>0.003352099167226214</v>
+      </c>
+      <c r="J99">
+        <v>-0.03181927897248199</v>
+      </c>
+      <c r="K99">
+        <v>0.145026022105185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.02185224117125925</v>
+        <v>-0.01448271812245936</v>
       </c>
       <c r="C101">
-        <v>-0.05225797178355379</v>
+        <v>-0.07520407792080162</v>
       </c>
       <c r="D101">
-        <v>-0.009032518057115213</v>
+        <v>-0.03806587423367259</v>
       </c>
       <c r="E101">
-        <v>0.1240457871028199</v>
+        <v>-0.08105430568770114</v>
       </c>
       <c r="F101">
-        <v>-0.01933130456831183</v>
+        <v>-0.07116714072028565</v>
       </c>
       <c r="G101">
-        <v>0.06497471169653955</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1413224842672947</v>
+      </c>
+      <c r="H101">
+        <v>0.2960719237903918</v>
+      </c>
+      <c r="I101">
+        <v>-0.04158408408430481</v>
+      </c>
+      <c r="J101">
+        <v>0.1622945204582214</v>
+      </c>
+      <c r="K101">
+        <v>0.2608071236039929</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.01957778330943998</v>
+        <v>-0.005706782516074455</v>
       </c>
       <c r="C102">
-        <v>-0.07294416621172456</v>
+        <v>-0.0340079492604201</v>
       </c>
       <c r="D102">
-        <v>0.03668754448861905</v>
+        <v>-0.009252237003786766</v>
       </c>
       <c r="E102">
-        <v>-0.05331299712560283</v>
+        <v>0.001078089295288803</v>
       </c>
       <c r="F102">
-        <v>0.02924119792528145</v>
+        <v>0.03175316789503036</v>
       </c>
       <c r="G102">
-        <v>0.004216893050728781</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.03640340938972659</v>
+      </c>
+      <c r="H102">
+        <v>0.008008418647988583</v>
+      </c>
+      <c r="I102">
+        <v>-0.02238900679633605</v>
+      </c>
+      <c r="J102">
+        <v>-0.007959798762608118</v>
+      </c>
+      <c r="K102">
+        <v>0.01517876595548385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
